--- a/src/main/resources/templates/订单导入模板.xlsx
+++ b/src/main/resources/templates/订单导入模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.Zhang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mr.Zhang\company\magic-card\projects\wms\service\wms\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A2F79D-C55E-411F-A0AC-5AA6954B8152}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B2DCA0-AD1F-4179-97F6-4EB33A4767A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="订单信息" sheetId="1" r:id="rId1"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,6 +483,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576 G1:G1048576" xr:uid="{2C15CCC7-01B9-4CAE-AA47-92E7078E3AA3}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{45BAEA13-20BA-49A3-B7BF-682FEC8D4DAE}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -492,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E2A755-5EC4-4B2F-B1B9-53F88E9A8D01}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,6 +535,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{2E89E5C3-99CC-4AFC-9B23-4260AA31E92B}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>